--- a/src/Sofco.WebApi/wwwroot/excelTemplates/asignaciones-masivas.xlsx
+++ b/src/Sofco.WebApi/wwwroot/excelTemplates/asignaciones-masivas.xlsx
@@ -14,20 +14,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Empleado</t>
   </si>
   <si>
     <t>Fecha</t>
   </si>
+  <si>
+    <t>Porcentaje (%)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -61,9 +72,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -368,25 +380,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="55.42578125" customWidth="1"/>
     <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
